--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itga1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itga1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H2">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I2">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J2">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N2">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O2">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P2">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q2">
-        <v>2646.712109248577</v>
+        <v>3626.956381858321</v>
       </c>
       <c r="R2">
-        <v>10586.84843699431</v>
+        <v>14507.82552743328</v>
       </c>
       <c r="S2">
-        <v>0.2138071295681816</v>
+        <v>0.4713176412233953</v>
       </c>
       <c r="T2">
-        <v>0.1455075648573564</v>
+        <v>0.4337986728759546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H3">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I3">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J3">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P3">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q3">
-        <v>111.664148948164</v>
+        <v>136.014428972818</v>
       </c>
       <c r="R3">
-        <v>669.984893688984</v>
+        <v>816.086573836908</v>
       </c>
       <c r="S3">
-        <v>0.00902047150457139</v>
+        <v>0.01767487476730283</v>
       </c>
       <c r="T3">
-        <v>0.009208393881529527</v>
+        <v>0.02440181486970005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H4">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I4">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J4">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N4">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O4">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P4">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q4">
-        <v>124.484617657734</v>
+        <v>310.520715696422</v>
       </c>
       <c r="R4">
-        <v>746.9077059464039</v>
+        <v>1863.124294178532</v>
       </c>
       <c r="S4">
-        <v>0.01005613670024319</v>
+        <v>0.04035170977105926</v>
       </c>
       <c r="T4">
-        <v>0.01026563496325172</v>
+        <v>0.05570930286480962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H5">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I5">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J5">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N5">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O5">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P5">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q5">
-        <v>1132.707616830852</v>
+        <v>2124.508834253509</v>
       </c>
       <c r="R5">
-        <v>4530.830467323406</v>
+        <v>8498.035337014035</v>
       </c>
       <c r="S5">
-        <v>0.09150257156732365</v>
+        <v>0.2760767947271507</v>
       </c>
       <c r="T5">
-        <v>0.06227255561513627</v>
+        <v>0.2540998610907514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H6">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I6">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J6">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N6">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O6">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P6">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q6">
-        <v>2212.080503800908</v>
+        <v>27.106518433137</v>
       </c>
       <c r="R6">
-        <v>13272.48302280545</v>
+        <v>162.639110598822</v>
       </c>
       <c r="S6">
-        <v>0.1786966482824933</v>
+        <v>0.003522452156741617</v>
       </c>
       <c r="T6">
-        <v>0.1824194136482151</v>
+        <v>0.004863074083851127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H7">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I7">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J7">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N7">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O7">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P7">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q7">
-        <v>20.20333547702733</v>
+        <v>16.53933747619267</v>
       </c>
       <c r="R7">
-        <v>121.220012862164</v>
+        <v>99.236024857156</v>
       </c>
       <c r="S7">
-        <v>0.001632069143807483</v>
+        <v>0.00214926255128627</v>
       </c>
       <c r="T7">
-        <v>0.001666069840191137</v>
+        <v>0.002967257622661501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.309416</v>
       </c>
       <c r="I8">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J8">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N8">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O8">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P8">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q8">
-        <v>192.26530764194</v>
+        <v>216.304389775864</v>
       </c>
       <c r="R8">
-        <v>1153.59184585164</v>
+        <v>1297.826338655184</v>
       </c>
       <c r="S8">
-        <v>0.01553160746075151</v>
+        <v>0.02810843694877622</v>
       </c>
       <c r="T8">
-        <v>0.01585517553482901</v>
+        <v>0.03880632161363488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.309416</v>
       </c>
       <c r="I9">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J9">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.081356</v>
       </c>
       <c r="O9">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P9">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q9">
         <v>8.111627205344</v>
@@ -1013,10 +1013,10 @@
         <v>73.00464484809599</v>
       </c>
       <c r="S9">
-        <v>0.0006552747927670002</v>
+        <v>0.001054094011174022</v>
       </c>
       <c r="T9">
-        <v>0.001003389078283478</v>
+        <v>0.002182912800336617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.309416</v>
       </c>
       <c r="I10">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J10">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N10">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O10">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P10">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q10">
-        <v>9.042945482063999</v>
+        <v>18.518831452576</v>
       </c>
       <c r="R10">
-        <v>81.38650933857599</v>
+        <v>166.669483073184</v>
       </c>
       <c r="S10">
-        <v>0.0007305086977935733</v>
+        <v>0.002406494878763804</v>
       </c>
       <c r="T10">
-        <v>0.001118590943903115</v>
+        <v>0.004983586301706792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>10.309416</v>
       </c>
       <c r="I11">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J11">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N11">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O11">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P11">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q11">
-        <v>82.28336495584399</v>
+        <v>126.701437399472</v>
       </c>
       <c r="R11">
-        <v>493.700189735064</v>
+        <v>760.208624396832</v>
       </c>
       <c r="S11">
-        <v>0.006647028216988375</v>
+        <v>0.01646466522548479</v>
       </c>
       <c r="T11">
-        <v>0.006785504940916967</v>
+        <v>0.02273100760335273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.309416</v>
       </c>
       <c r="I12">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J12">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N12">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O12">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P12">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q12">
-        <v>160.692331102368</v>
+        <v>1.616578285296</v>
       </c>
       <c r="R12">
-        <v>1446.230979921312</v>
+        <v>14.549204567664</v>
       </c>
       <c r="S12">
-        <v>0.01298107411703776</v>
+        <v>0.0002100719678046667</v>
       </c>
       <c r="T12">
-        <v>0.01987726086398599</v>
+        <v>0.0004350359480763645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.309416</v>
       </c>
       <c r="I13">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J13">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N13">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O13">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P13">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q13">
-        <v>1.467632424890667</v>
+        <v>0.9863728491413334</v>
       </c>
       <c r="R13">
-        <v>13.208691824016</v>
+        <v>8.877355642272001</v>
       </c>
       <c r="S13">
-        <v>0.000118558522073695</v>
+        <v>0.0001281776993375084</v>
       </c>
       <c r="T13">
-        <v>0.0001815426558434326</v>
+        <v>0.0002654419222910779</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H14">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I14">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J14">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N14">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O14">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P14">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q14">
-        <v>5.723713697108334</v>
+        <v>438.3640086724545</v>
       </c>
       <c r="R14">
-        <v>34.34228218265</v>
+        <v>1753.456034689818</v>
       </c>
       <c r="S14">
-        <v>0.0004623739740232856</v>
+        <v>0.05696475744736541</v>
       </c>
       <c r="T14">
-        <v>0.0004720065543377406</v>
+        <v>0.05243011086371606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H15">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I15">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J15">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.081356</v>
       </c>
       <c r="O15">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P15">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q15">
-        <v>0.2414821077733333</v>
+        <v>16.439081159082</v>
       </c>
       <c r="R15">
-        <v>2.17333896996</v>
+        <v>98.634486954492</v>
       </c>
       <c r="S15">
-        <v>1.950744704143475E-05</v>
+        <v>0.002136234390502562</v>
       </c>
       <c r="T15">
-        <v>2.987076494109677E-05</v>
+        <v>0.002949271030296794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H16">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I16">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J16">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N16">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O16">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P16">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q16">
-        <v>0.26920733414</v>
+        <v>37.53039501367801</v>
       </c>
       <c r="R16">
-        <v>2.42286600726</v>
+        <v>225.182370082068</v>
       </c>
       <c r="S16">
-        <v>2.174715080270557E-05</v>
+        <v>0.004877019569495326</v>
       </c>
       <c r="T16">
-        <v>3.330030979381423E-05</v>
+        <v>0.006733180869314284</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H17">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I17">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J17">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N17">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O17">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P17">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q17">
-        <v>2.449565284648334</v>
+        <v>256.774030617441</v>
       </c>
       <c r="R17">
-        <v>14.69739170789</v>
+        <v>1027.096122469764</v>
       </c>
       <c r="S17">
-        <v>0.0001978811826078123</v>
+        <v>0.03336740718564385</v>
       </c>
       <c r="T17">
-        <v>0.0002020036170251376</v>
+        <v>0.0307112140272788</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H18">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I18">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J18">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N18">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O18">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P18">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q18">
-        <v>4.783790210679999</v>
+        <v>3.276169005213</v>
       </c>
       <c r="R18">
-        <v>43.05411189611999</v>
+        <v>19.657014031278</v>
       </c>
       <c r="S18">
-        <v>0.0003864449215416334</v>
+        <v>0.0004257333381536393</v>
       </c>
       <c r="T18">
-        <v>0.000591743521821793</v>
+        <v>0.0005877646228477246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H19">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I19">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J19">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N19">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O19">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P19">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q19">
-        <v>0.04369123018444444</v>
+        <v>1.998990203774</v>
       </c>
       <c r="R19">
-        <v>0.39322107166</v>
+        <v>11.993941222644</v>
       </c>
       <c r="S19">
-        <v>3.529472087423549E-06</v>
+        <v>0.0002597658335192627</v>
       </c>
       <c r="T19">
-        <v>5.404501720069101E-06</v>
+        <v>0.0003586309867799793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H20">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I20">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J20">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N20">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O20">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P20">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q20">
-        <v>216.4642184025263</v>
+        <v>186.996652841398</v>
       </c>
       <c r="R20">
-        <v>865.856873610105</v>
+        <v>1121.979917048388</v>
       </c>
       <c r="S20">
-        <v>0.01748644781921665</v>
+        <v>0.02429993968902398</v>
       </c>
       <c r="T20">
-        <v>0.01190049389521433</v>
+        <v>0.03354833555784934</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H21">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I21">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J21">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.081356</v>
       </c>
       <c r="O21">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P21">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q21">
-        <v>9.132573445062</v>
+        <v>7.012558266007999</v>
       </c>
       <c r="R21">
-        <v>54.795440670372</v>
+        <v>63.11302439407199</v>
       </c>
       <c r="S21">
-        <v>0.0007377490385282845</v>
+        <v>0.0009112716208577831</v>
       </c>
       <c r="T21">
-        <v>0.0007531184738009923</v>
+        <v>0.001887143333200805</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H22">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I22">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J22">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N22">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O22">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P22">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q22">
-        <v>10.181109373497</v>
+        <v>16.009658887432</v>
       </c>
       <c r="R22">
-        <v>61.08665624098199</v>
+        <v>144.086929986888</v>
       </c>
       <c r="S22">
-        <v>0.0008224520390263036</v>
+        <v>0.002080431598614789</v>
       </c>
       <c r="T22">
-        <v>0.0008395860815239227</v>
+        <v>0.00430834509891855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H23">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I23">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J23">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N23">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O23">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P23">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q23">
-        <v>92.63972008859325</v>
+        <v>109.534275880604</v>
       </c>
       <c r="R23">
-        <v>370.558880354373</v>
+        <v>657.2056552836239</v>
       </c>
       <c r="S23">
-        <v>0.007483636987539725</v>
+        <v>0.01423381786430745</v>
       </c>
       <c r="T23">
-        <v>0.005093028452945468</v>
+        <v>0.01965111453329195</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H24">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I24">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J24">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N24">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O24">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P24">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q24">
-        <v>180.917401490514</v>
+        <v>1.397543196972</v>
       </c>
       <c r="R24">
-        <v>1085.504408943084</v>
+        <v>12.577888772748</v>
       </c>
       <c r="S24">
-        <v>0.0146148990539825</v>
+        <v>0.0001816086806004429</v>
       </c>
       <c r="T24">
-        <v>0.01491936945420889</v>
+        <v>0.0003760916097923858</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H25">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I25">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J25">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N25">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O25">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P25">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q25">
-        <v>1.652351688677</v>
+        <v>0.8527262041893332</v>
       </c>
       <c r="R25">
-        <v>9.914110132062</v>
+        <v>7.674535837703999</v>
       </c>
       <c r="S25">
-        <v>0.0001334805437881445</v>
+        <v>0.0001108105146172104</v>
       </c>
       <c r="T25">
-        <v>0.0001362613275923637</v>
+        <v>0.0002294763922435969</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H26">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I26">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J26">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N26">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O26">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P26">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q26">
-        <v>2167.757394138862</v>
+        <v>3.069933903455333</v>
       </c>
       <c r="R26">
-        <v>13006.54436483317</v>
+        <v>18.419603420732</v>
       </c>
       <c r="S26">
-        <v>0.1751161316039838</v>
+        <v>0.0003989333903560627</v>
       </c>
       <c r="T26">
-        <v>0.1787643045047083</v>
+        <v>0.0005507647926772795</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H27">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I27">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J27">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.081356</v>
       </c>
       <c r="O27">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P27">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q27">
-        <v>91.45716441797998</v>
+        <v>0.1151255385786667</v>
       </c>
       <c r="R27">
-        <v>823.1144797618199</v>
+        <v>1.036129847208</v>
       </c>
       <c r="S27">
-        <v>0.007388107582356256</v>
+        <v>1.496039421893156E-05</v>
       </c>
       <c r="T27">
-        <v>0.01131303468277247</v>
+        <v>3.098133154386758E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H28">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I28">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J28">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N28">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O28">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P28">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q28">
-        <v>101.95761353913</v>
+        <v>0.2628314135813334</v>
       </c>
       <c r="R28">
-        <v>917.6185218521698</v>
+        <v>2.365482722232001</v>
       </c>
       <c r="S28">
-        <v>0.008236356576995573</v>
+        <v>3.415455518246254E-05</v>
       </c>
       <c r="T28">
-        <v>0.0126119153756983</v>
+        <v>7.073032851648768E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H29">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I29">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J29">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N29">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O29">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P29">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q29">
-        <v>927.7304105732923</v>
+        <v>1.798229979022667</v>
       </c>
       <c r="R29">
-        <v>5566.382463439754</v>
+        <v>10.789379874136</v>
       </c>
       <c r="S29">
-        <v>0.07494406943794914</v>
+        <v>0.0002336773379270448</v>
       </c>
       <c r="T29">
-        <v>0.07650537004851676</v>
+        <v>0.0003226133828053272</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H30">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I30">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J30">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N30">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O30">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P30">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q30">
-        <v>1811.777658699059</v>
+        <v>0.022943540308</v>
       </c>
       <c r="R30">
-        <v>16305.99892829154</v>
+        <v>0.206491862772</v>
       </c>
       <c r="S30">
-        <v>0.1463593185177152</v>
+        <v>2.981479279257256E-06</v>
       </c>
       <c r="T30">
-        <v>0.224112606385435</v>
+        <v>6.174315776047596E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H31">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I31">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J31">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N31">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O31">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P31">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q31">
-        <v>16.54729644133</v>
+        <v>0.01399925102844444</v>
       </c>
       <c r="R31">
-        <v>148.92566797197</v>
+        <v>0.125993259256</v>
       </c>
       <c r="S31">
-        <v>0.001336726401738873</v>
+        <v>1.819182057612725E-06</v>
       </c>
       <c r="T31">
-        <v>0.002046861388478399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.269007</v>
-      </c>
-      <c r="H32">
-        <v>0.807021</v>
-      </c>
-      <c r="I32">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J32">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>55.9484575</v>
-      </c>
-      <c r="N32">
-        <v>111.896915</v>
-      </c>
-      <c r="O32">
-        <v>0.4236195045309115</v>
-      </c>
-      <c r="P32">
-        <v>0.3537406883573876</v>
-      </c>
-      <c r="Q32">
-        <v>15.0505267067025</v>
-      </c>
-      <c r="R32">
-        <v>90.30316024021499</v>
-      </c>
-      <c r="S32">
-        <v>0.001215814104754638</v>
-      </c>
-      <c r="T32">
-        <v>0.001241143010941963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.269007</v>
-      </c>
-      <c r="H33">
-        <v>0.807021</v>
-      </c>
-      <c r="I33">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J33">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.360452</v>
-      </c>
-      <c r="N33">
-        <v>7.081356</v>
-      </c>
-      <c r="O33">
-        <v>0.01787240527067255</v>
-      </c>
-      <c r="P33">
-        <v>0.02238635217015337</v>
-      </c>
-      <c r="Q33">
-        <v>0.6349781111639999</v>
-      </c>
-      <c r="R33">
-        <v>5.714803000476</v>
-      </c>
-      <c r="S33">
-        <v>5.129490540818386E-05</v>
-      </c>
-      <c r="T33">
-        <v>7.854528882580839E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.269007</v>
-      </c>
-      <c r="H34">
-        <v>0.807021</v>
-      </c>
-      <c r="I34">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J34">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>2.631462</v>
-      </c>
-      <c r="N34">
-        <v>7.894385999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.01992438537973851</v>
-      </c>
-      <c r="P34">
-        <v>0.02495659096409337</v>
-      </c>
-      <c r="Q34">
-        <v>0.7078816982339998</v>
-      </c>
-      <c r="R34">
-        <v>6.370935284105999</v>
-      </c>
-      <c r="S34">
-        <v>5.718421487716348E-05</v>
-      </c>
-      <c r="T34">
-        <v>8.756328992249763E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.269007</v>
-      </c>
-      <c r="H35">
-        <v>0.807021</v>
-      </c>
-      <c r="I35">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J35">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.9441395</v>
-      </c>
-      <c r="N35">
-        <v>47.888279</v>
-      </c>
-      <c r="O35">
-        <v>0.1812955167067658</v>
-      </c>
-      <c r="P35">
-        <v>0.1513896319457121</v>
-      </c>
-      <c r="Q35">
-        <v>6.441141134476499</v>
-      </c>
-      <c r="R35">
-        <v>38.646846806859</v>
-      </c>
-      <c r="S35">
-        <v>0.0005203293143571056</v>
-      </c>
-      <c r="T35">
-        <v>0.0005311692711714952</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.269007</v>
-      </c>
-      <c r="H36">
-        <v>0.807021</v>
-      </c>
-      <c r="I36">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J36">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>46.76084399999999</v>
-      </c>
-      <c r="N36">
-        <v>140.282532</v>
-      </c>
-      <c r="O36">
-        <v>0.3540545432682795</v>
-      </c>
-      <c r="P36">
-        <v>0.4434763856912163</v>
-      </c>
-      <c r="Q36">
-        <v>12.578994361908</v>
-      </c>
-      <c r="R36">
-        <v>113.210949257172</v>
-      </c>
-      <c r="S36">
-        <v>0.001016158375508945</v>
-      </c>
-      <c r="T36">
-        <v>0.001555991817549592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.269007</v>
-      </c>
-      <c r="H37">
-        <v>0.807021</v>
-      </c>
-      <c r="I37">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J37">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4270753333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.281226</v>
-      </c>
-      <c r="O37">
-        <v>0.003233644843632026</v>
-      </c>
-      <c r="P37">
-        <v>0.004050350871437182</v>
-      </c>
-      <c r="Q37">
-        <v>0.114886254194</v>
-      </c>
-      <c r="R37">
-        <v>1.033976287746</v>
-      </c>
-      <c r="S37">
-        <v>9.280760136406894E-06</v>
-      </c>
-      <c r="T37">
-        <v>1.421115761178158E-05</v>
+        <v>3.767326023684168E-06</v>
       </c>
     </row>
   </sheetData>
